--- a/aula-operacoes-aritmeticas.xlsx
+++ b/aula-operacoes-aritmeticas.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelio\Google Drive\Cursos online\Curso_Excel\02 Primeiros passos sobre planilha eletrônica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\wokspaces\start\ExcelAvançado\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5608E4-EC76-4172-A3CA-BBFACC26592D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ex1 - Situação inicial" sheetId="1" r:id="rId1"/>
@@ -17,10 +18,21 @@
     <sheet name="Ex2 - Situação inicial" sheetId="3" r:id="rId3"/>
     <sheet name="Ex2 - Resultado final" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -116,9 +128,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -296,6 +308,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -306,52 +363,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,105 +644,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="2:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="20">
         <v>80</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="21">
         <v>2</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="22">
         <v>0.1</v>
       </c>
-      <c r="F4" s="25"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="24" t="s">
+      <c r="F4" s="20">
+        <f>C4*D4-C4*D4*E4</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="20">
         <v>690.5</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="21">
         <v>1</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="22">
         <v>0.05</v>
       </c>
-      <c r="F5" s="25"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="24" t="s">
+      <c r="F5" s="20">
+        <f t="shared" ref="F5:F6" si="0">C5*D5-C5*D5*E5</f>
+        <v>655.97500000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="20">
         <v>50</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="21">
         <v>3</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="22">
         <v>0</v>
       </c>
-      <c r="F6" s="25"/>
-    </row>
-    <row r="8" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="28" t="s">
+      <c r="F6" s="20">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="25"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="20">
+        <f>SUM(F4:F7)</f>
+        <v>949.97500000000002</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -742,109 +768,111 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="2:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="20">
         <v>80</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="21">
         <v>2</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="22">
         <v>0.1</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="20">
         <f>C4*D4-C4*D4*E4</f>
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="24" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="20">
         <v>690.5</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="21">
         <v>1</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="22">
         <v>0.05</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="20">
         <f t="shared" ref="F5:F6" si="0">C5*D5-C5*D5*E5</f>
         <v>655.97500000000002</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="24" t="s">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="20">
         <v>50</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="21">
         <v>3</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="22">
         <v>0</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="20">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="28" t="s">
+    <row r="8" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="25">
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="20">
         <f>F4+F5+F6</f>
         <v>949.97500000000002</v>
       </c>
@@ -859,163 +887,174 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:H11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9.140625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="3.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.1796875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>43758</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <v>123.4</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="9">
         <v>5</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="9">
         <v>4</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="11">
         <v>43761</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="12">
         <v>256.81</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="14">
         <v>5</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="14">
         <v>5</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <v>43762</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="7">
         <v>110.5</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="9">
         <v>5</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="9">
         <v>4</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="11">
         <v>43766</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="12">
         <v>84.72</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="14">
         <v>4</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="14">
         <v>2</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:8" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
+    <row r="10" spans="2:8" s="17" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="16">
+        <f>(F5+F6+F7+F8)/4</f>
+        <v>4.75</v>
+      </c>
+      <c r="G10" s="16">
+        <f t="shared" ref="G10:H10" si="0">(G5+G6+G7+G8)/4</f>
+        <v>3.75</v>
+      </c>
+      <c r="H10" s="16">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="E11" s="3"/>
     </row>
   </sheetData>
@@ -1029,172 +1068,174 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:H11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9.140625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="3.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.1796875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>43758</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <v>123.4</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="9">
         <v>5</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="9">
         <v>4</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="11">
         <v>43761</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="12">
         <v>256.81</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="14">
         <v>5</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="14">
         <v>5</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <v>43762</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="7">
         <v>110.5</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="9">
         <v>5</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="9">
         <v>4</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="11">
         <v>43766</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="12">
         <v>84.72</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="14">
         <v>4</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="14">
         <v>2</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:8" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
+    <row r="10" spans="2:8" s="17" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20">
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="16">
         <f>(F5+F6+F7+F8)/4</f>
         <v>4.75</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="16">
         <f t="shared" ref="G10:H10" si="0">(G5+G6+G7+G8)/4</f>
         <v>3.75</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="16">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="E11" s="3"/>
     </row>
   </sheetData>
